--- a/data/describe/action/passes.xlsx
+++ b/data/describe/action/passes.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\twelve-signality-wyscout-dimitris-streamlit\twelve-signality-wyscout-dimitris-streamlit\shotsGPT\data\describe\action\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16E8667-A052-4EB4-A072-F6FA96244533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{770ADAD3-7E03-4AF4-BC25-D5E0390A2EF1}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,124 +29,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>assistant</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>What is start distance to goal ?</t>
-  </si>
-  <si>
-    <t>What is end distance to goal ?</t>
-  </si>
-  <si>
-    <t>What is pass length?</t>
-  </si>
-  <si>
-    <t>Whats is pass angle?</t>
-  </si>
-  <si>
-    <t>What is start angle to goal ?</t>
-  </si>
-  <si>
-    <t>What is end angle to goal?</t>
-  </si>
-  <si>
-    <t>What is start distance to sideline?</t>
-  </si>
-  <si>
-    <t>What is end distance to sideline?</t>
-  </si>
-  <si>
-    <t>What is forward pass?</t>
-  </si>
-  <si>
-    <t>What is backward pass ?</t>
-  </si>
-  <si>
-    <t>What is lateral pass?</t>
-  </si>
-  <si>
-    <t>What is teammates behind ?</t>
-  </si>
-  <si>
-    <t>What is teammates beyond?</t>
-  </si>
-  <si>
-    <t>What is opponents behind?</t>
-  </si>
-  <si>
-    <t>What is opponents beyond?</t>
-  </si>
-  <si>
-    <t>What is opponents between?</t>
-  </si>
-  <si>
-    <t>What is packing ?</t>
-  </si>
-  <si>
-    <t>What is pressure on passer?</t>
-  </si>
-  <si>
-    <t>What is average speed of teammates ?</t>
-  </si>
-  <si>
-    <t>What is average speed of opponents?</t>
-  </si>
-  <si>
-    <t>What is opponents nearby?</t>
-  </si>
-  <si>
-    <t>What is teammates nearby?</t>
-  </si>
-  <si>
-    <t>What is speed difference?</t>
-  </si>
-  <si>
-    <t>What is possession  xGtarget?</t>
-  </si>
-  <si>
-    <t>What is possession xG?</t>
-  </si>
-  <si>
-    <t>What is xT?</t>
   </si>
   <si>
     <t>The straight-line (Euclidean) distance between the passer’s starting location at the moment of the pass and the center point of the goalpost. 
 It measures how far the passer was from the goal at the moment of the pass.</t>
   </si>
   <si>
-    <t>What is passer x and passer y?</t>
+    <t>What is end distance to goal ?</t>
   </si>
   <si>
     <t>The straight-line (Euclidean) distance between the pass end location  and the center point of the goalpost. 
 It measures how far the pass ended from the goal.</t>
   </si>
   <si>
+    <t>What is pass length?</t>
+  </si>
+  <si>
     <t>Euclidean distance between the passer's start location and the pass end location.</t>
   </si>
   <si>
+    <t>Whats is pass angle?</t>
+  </si>
+  <si>
     <t>Angle between passer's start location and the pass end location measured counter clockwise from the positive x-axis, adjusted to the [0°, 360°] range.</t>
   </si>
   <si>
+    <t>What is start angle to goal ?</t>
+  </si>
+  <si>
     <t>The angle between between the passer's start location and the center of the goal. It measures how "open" the goal appears to the passer based on their position on the field — the angle represents the visible width of the goal. A larger angle  (closer to 90°) means a wider and easier view of the goal, while a smaller angle (closer to 0°) means a narrower and more difficult view, making scoring or accurate passing harder.</t>
+  </si>
+  <si>
+    <t>What is end angle to goal?</t>
   </si>
   <si>
     <t xml:space="preserve">The angle between the pass end location and the center of the goal. A larger angle (closer to 90°) means the goal appears wider from the pass end location, offering a better scoring or playmaking opportunity, while a smaller angle (closer to 0°) means the goal appears narrower and more difficult to access.
 </t>
   </si>
   <si>
+    <t>What is start distance to sideline?</t>
+  </si>
+  <si>
     <t>Passer distance to sideline measures the shortest straight-line distance from the passer's location to either the left or right sideline of the pitch. It reflects how centrally or wide the passer is positioned when making the pass.</t>
   </si>
   <si>
+    <t>What is end distance to sideline?</t>
+  </si>
+  <si>
     <t xml:space="preserve"> The distance to sideline at pass end measures how far the pass endpoint is from the nearest sideline. It is calculated as the minimum distance between the pass end position and either the left or right boundary of the pitch, indicating how close the ball is to the edge of the field after the pass.</t>
   </si>
   <si>
+    <t>What is forward pass?</t>
+  </si>
+  <si>
     <t>A pass where the pass angle is between 0°and 70° or between 290° and 360°, meaning the ball moves generally forwards towards the opponents goal.</t>
   </si>
   <si>
+    <t>What is backward pass ?</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <charset val="161"/>
+      </rPr>
       <t>A pass where the pass angle is between 0°</t>
     </r>
     <r>
@@ -153,7 +110,6 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t xml:space="preserve"> and 250°</t>
@@ -163,20 +119,34 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t>, meaning the ball moves generally backward, away from the opponent’s goal.</t>
     </r>
   </si>
   <si>
+    <t>What is lateral pass?</t>
+  </si>
+  <si>
     <t>A pass where the pass angle is between 70° and 110° or between 250° and 290°, meaning the ball moves mostly sideways across the field.</t>
   </si>
   <si>
+    <t>What is teammates behind ?</t>
+  </si>
+  <si>
     <t>The number of teammates located behind the passer’s starting x-position at the moment of the pass, adjusted based on the type of pass:For a forward or lateral pass, it counts teammates whose x-position is less than the passer’s x-position (i.e., behind the passer moving toward the opponent's goal).For a backward pass, it counts teammates whose x-position is greater than the passer’s x-position (i.e., behind the passer moving toward their own goal)</t>
   </si>
   <si>
+    <t>What is teammates beyond?</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <charset val="161"/>
+      </rPr>
       <t>The number of teammates located </t>
     </r>
     <r>
@@ -185,7 +155,6 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t>ahead of the passer’s starting x-position</t>
@@ -195,53 +164,94 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t> at the moment of the pass, adjusted based on the type of pass:For a forward or lateral pass, it counts teammates whose x-position is greater than the passer’s x-position (i.e., beyond the passer moving toward the opponent’s goal).For a backward pass, it counts teammates whose x-position is less than the passer’s x-position (i.e., beyond the passer but moving toward their own goal).</t>
     </r>
   </si>
   <si>
+    <t>What is opponents behind?</t>
+  </si>
+  <si>
     <t>The number of opponents positioned behind the passer’s starting x-location, relative to the play direction and field orientation, at the moment of the pass:
 For a forward or lateral pass, it counts opponents whose  position is less than the passer’s x-position.For a backward pass, it counts opponents whose position is greater than the passer’s x-position</t>
   </si>
   <si>
+    <t>What is opponents beyond?</t>
+  </si>
+  <si>
     <t>The number of opponents positioned ahead of the passer’s starting x-location, relative to the play direction and field orientation, at the moment of the pass:For a forward or lateral pass, it counts opponents whose  position  is greater than the passer’s x-position.For a backward pass, it counts opponents whose position is less than the passer’s x-position</t>
+  </si>
+  <si>
+    <t>What is opponents between?</t>
   </si>
   <si>
     <t>The number of opponents positioned between the passer’s start location and the pass end location at the moment the pass is made:For a forward or backward pass, it counts opponents whose adjusted x-position falls between the passer’s x and end x coordinates.
 For a lateral pass, it counts opponents whose adjusted y-position falls between the passer’s y and end y coordinates.</t>
   </si>
   <si>
+    <t>What is packing ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">The number of opponents positioned close to the path of the pass within 5 meters  and located between the passer and receiver along the pass trajectory at the moment the pass is made. It counts how many opposing players are effectively skipped or bypassed by the ball during the pass, meaning the ball traveled past them closely without them intercepting it.
 </t>
   </si>
   <si>
+    <t>What is pressure on passer?</t>
+  </si>
+  <si>
     <t>A total pressure score on the passer, based on how many opponents are nearby within a 6 meter threshold and how close they are ,closer opponents create more pressure, and those farther away create less.</t>
   </si>
   <si>
+    <t>What is average speed of teammates ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How fast the attacking team is moving </t>
+  </si>
+  <si>
+    <t>What is average speed of opponents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How fast the defending team is moving </t>
+  </si>
+  <si>
+    <t>What is opponents nearby?</t>
+  </si>
+  <si>
     <t xml:space="preserve">The number of opponents near the passer within a threshold of 6 meters. </t>
   </si>
   <si>
-    <t xml:space="preserve">How fast the attacking team is moving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How fast the defending team is moving </t>
+    <t>What is teammates nearby?</t>
   </si>
   <si>
     <t>The number of teammates near the passer withing a threshold of 6 meters</t>
   </si>
   <si>
+    <t>What is speed difference?</t>
+  </si>
+  <si>
     <t>The difference between the average speed of the passer’s teammates and the average speed of the opponents at the moment of the pass.A positive value means the passer’s team was moving faster than the opponents, while a negative value means the opponents were moving faster.</t>
   </si>
   <si>
+    <t>What is possession xG?</t>
+  </si>
+  <si>
     <t>The probability of a shot leading to a goal within the same possession.</t>
   </si>
   <si>
+    <t>What is possession  xGtarget?</t>
+  </si>
+  <si>
+    <t>A binary variable used in order to classify the if the pass is dangerous or safe based on a possession Xg threshold of 0.066100.</t>
+  </si>
+  <si>
+    <t>What is xT?</t>
+  </si>
+  <si>
     <t>The probability of pass that will lead to a shot with xG value more than 0.066100 in the same possession.</t>
   </si>
   <si>
-    <t>A binary variable used in order to classify the if the pass is dangerous or safe based on a possession Xg threshold of 0.066100.</t>
+    <t>What is passer x and passer y?</t>
   </si>
   <si>
     <t>The x and y coordinates of the passer on the pitch at the start of the pass.</t>
@@ -250,13 +260,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,7 +280,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
@@ -272,27 +287,362 @@
       <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,46 +650,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -388,7 +1024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -421,26 +1057,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -473,23 +1092,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,249 +1233,244 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1446827-3C24-4C5A-A62C-3329DB6CF10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="206.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33" style="1" customWidth="1"/>
+    <col min="2" max="2" width="206.666666666667" customWidth="1"/>
+    <col min="3" max="3" width="43.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" ht="30" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="84" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="24" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="24" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="17" ht="36" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="18" ht="105" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -881,6 +1478,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/describe/action/passes.xlsx
+++ b/data/describe/action/passes.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikitha\shotsGPT\data\describe\action\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>user</t>
   </si>
@@ -256,18 +248,49 @@
   <si>
     <t>The x and y coordinates of the passer on the pitch at the start of the pass.</t>
   </si>
+  <si>
+    <t>How does pressure from defenders influence the xT of a pass?</t>
+  </si>
+  <si>
+    <t>Pressure from defenders lowers the xT  because the player has less time and space to shoot accurately. Shots taken under heavy pressure, such as when defenders are blocking or challenging, are less likely to result in goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the angle of a pass affect the chance for it to be a shot?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle of a pass affects possibility of shot significantly because pass from a central position closer to goal penalty area facing the goal, have a higher probability of being shot. Wide-angle shots, especially from the sides, are much harder to convert, resulting in a lower xT value.
+</t>
+  </si>
+  <si>
+    <t>What is the impact of pass location on xT, and why are central areas typically assigned higher xT values?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passes from central locations, especially within the penalty area, are assigned higher xT values because they have a greater chance of resulting in a goal. This is due to the fact that players have a better angle to the goal, are often closer, and can avoid the acute angles that make it harder to score. Central areas also offer a better line of sight for shooters, reducing the goalkeeper’s ability to cover all potential pass trajectories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What factors are considered when calculating xT?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xT considers factors like the end distance from goal, opponents beyond, packing, opponents between, start distance from goal, start angle from goal , end angle from goal and pass angle. Sometimes even teammates beyond, opponents behind, opponents beyond are also important.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do passes taken from a wide angle usually have a lower xT?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passes taken from a wide angle have a lower xT because the angle to the goal is more acute, making it harder to aim for a shot ,especially if defenders are also in the way. These pass require more precision and skill to convert into goals.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,165 +313,26 @@
       <charset val="161"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,192 +341,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -652,251 +356,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFAAAAAA"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFAAAAAA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -920,62 +398,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1233,23 +686,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" customWidth="1"/>
-    <col min="2" max="2" width="206.666666666667" customWidth="1"/>
-    <col min="3" max="3" width="43.8857142857143" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1260,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:2">
+    <row r="2" spans="1:2" ht="75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:2">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:2">
+    <row r="6" spans="1:2" ht="135">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="84" spans="1:2">
+    <row r="7" spans="1:2" ht="132.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="36">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1356,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="24" spans="1:2">
+    <row r="14" spans="1:2" ht="108">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="24" spans="1:2">
+    <row r="15" spans="1:2" ht="84">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="36" spans="1:2">
+    <row r="17" spans="1:2" ht="96">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="105" spans="1:2">
+    <row r="18" spans="1:2" ht="105">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1476,9 +929,52 @@
         <v>55</v>
       </c>
     </row>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="150">
+      <c r="A31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="105">
+      <c r="A32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90">
+      <c r="A33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/describe/action/passes.xlsx
+++ b/data/describe/action/passes.xlsx
@@ -1,99 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nikitha\shotsGPT\data\describe\action\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\twelve-signality-wyscout-dimitris-streamlit\twelve-signality-wyscout-dimitris-streamlit\shotsGPT\data\describe\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0C7D8-D104-4AE8-9D4E-12EDC2BE8F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7635"/>
+    <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11100" xr2:uid="{770ADAD3-7E03-4AF4-BC25-D5E0390A2EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>user</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>assistant</t>
   </si>
   <si>
     <t>What is start distance to goal ?</t>
+  </si>
+  <si>
+    <t>What is end distance to goal ?</t>
+  </si>
+  <si>
+    <t>What is pass length?</t>
+  </si>
+  <si>
+    <t>Whats is pass angle?</t>
+  </si>
+  <si>
+    <t>What is start angle to goal ?</t>
+  </si>
+  <si>
+    <t>What is end angle to goal?</t>
+  </si>
+  <si>
+    <t>What is start distance to sideline?</t>
+  </si>
+  <si>
+    <t>What is end distance to sideline?</t>
+  </si>
+  <si>
+    <t>What is forward pass?</t>
+  </si>
+  <si>
+    <t>What is backward pass ?</t>
+  </si>
+  <si>
+    <t>What is lateral pass?</t>
+  </si>
+  <si>
+    <t>What is teammates behind ?</t>
+  </si>
+  <si>
+    <t>What is teammates beyond?</t>
+  </si>
+  <si>
+    <t>What is opponents behind?</t>
+  </si>
+  <si>
+    <t>What is opponents beyond?</t>
+  </si>
+  <si>
+    <t>What is opponents between?</t>
+  </si>
+  <si>
+    <t>What is packing ?</t>
+  </si>
+  <si>
+    <t>What is pressure on passer?</t>
+  </si>
+  <si>
+    <t>What is average speed of teammates ?</t>
+  </si>
+  <si>
+    <t>What is average speed of opponents?</t>
+  </si>
+  <si>
+    <t>What is opponents nearby?</t>
+  </si>
+  <si>
+    <t>What is teammates nearby?</t>
+  </si>
+  <si>
+    <t>What is speed difference?</t>
+  </si>
+  <si>
+    <t>What is possession  xGtarget?</t>
+  </si>
+  <si>
+    <t>What is possession xG?</t>
+  </si>
+  <si>
+    <t>What is xT?</t>
   </si>
   <si>
     <t>The straight-line (Euclidean) distance between the passer’s starting location at the moment of the pass and the center point of the goalpost. 
 It measures how far the passer was from the goal at the moment of the pass.</t>
   </si>
   <si>
-    <t>What is end distance to goal ?</t>
+    <t>What is passer x and passer y?</t>
   </si>
   <si>
     <t>The straight-line (Euclidean) distance between the pass end location  and the center point of the goalpost. 
 It measures how far the pass ended from the goal.</t>
   </si>
   <si>
-    <t>What is pass length?</t>
-  </si>
-  <si>
     <t>Euclidean distance between the passer's start location and the pass end location.</t>
   </si>
   <si>
-    <t>Whats is pass angle?</t>
-  </si>
-  <si>
     <t>Angle between passer's start location and the pass end location measured counter clockwise from the positive x-axis, adjusted to the [0°, 360°] range.</t>
   </si>
   <si>
-    <t>What is start angle to goal ?</t>
-  </si>
-  <si>
     <t>The angle between between the passer's start location and the center of the goal. It measures how "open" the goal appears to the passer based on their position on the field — the angle represents the visible width of the goal. A larger angle  (closer to 90°) means a wider and easier view of the goal, while a smaller angle (closer to 0°) means a narrower and more difficult view, making scoring or accurate passing harder.</t>
-  </si>
-  <si>
-    <t>What is end angle to goal?</t>
   </si>
   <si>
     <t xml:space="preserve">The angle between the pass end location and the center of the goal. A larger angle (closer to 90°) means the goal appears wider from the pass end location, offering a better scoring or playmaking opportunity, while a smaller angle (closer to 0°) means the goal appears narrower and more difficult to access.
 </t>
   </si>
   <si>
-    <t>What is start distance to sideline?</t>
-  </si>
-  <si>
     <t>Passer distance to sideline measures the shortest straight-line distance from the passer's location to either the left or right sideline of the pitch. It reflects how centrally or wide the passer is positioned when making the pass.</t>
   </si>
   <si>
-    <t>What is end distance to sideline?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The distance to sideline at pass end measures how far the pass endpoint is from the nearest sideline. It is calculated as the minimum distance between the pass end position and either the left or right boundary of the pitch, indicating how close the ball is to the edge of the field after the pass.</t>
   </si>
   <si>
-    <t>What is forward pass?</t>
-  </si>
-  <si>
     <t>A pass where the pass angle is between 0°and 70° or between 290° and 360°, meaning the ball moves generally forwards towards the opponents goal.</t>
   </si>
   <si>
-    <t>What is backward pass ?</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <charset val="161"/>
-      </rPr>
       <t>A pass where the pass angle is between 0°</t>
     </r>
     <r>
@@ -102,6 +150,7 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t xml:space="preserve"> and 250°</t>
@@ -111,34 +160,20 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t>, meaning the ball moves generally backward, away from the opponent’s goal.</t>
     </r>
   </si>
   <si>
-    <t>What is lateral pass?</t>
-  </si>
-  <si>
     <t>A pass where the pass angle is between 70° and 110° or between 250° and 290°, meaning the ball moves mostly sideways across the field.</t>
   </si>
   <si>
-    <t>What is teammates behind ?</t>
-  </si>
-  <si>
     <t>The number of teammates located behind the passer’s starting x-position at the moment of the pass, adjusted based on the type of pass:For a forward or lateral pass, it counts teammates whose x-position is less than the passer’s x-position (i.e., behind the passer moving toward the opponent's goal).For a backward pass, it counts teammates whose x-position is greater than the passer’s x-position (i.e., behind the passer moving toward their own goal)</t>
   </si>
   <si>
-    <t>What is teammates beyond?</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <charset val="161"/>
-      </rPr>
       <t>The number of teammates located </t>
     </r>
     <r>
@@ -147,6 +182,7 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t>ahead of the passer’s starting x-position</t>
@@ -156,146 +192,71 @@
         <sz val="9"/>
         <color rgb="FF1D1C1D"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="161"/>
       </rPr>
       <t> at the moment of the pass, adjusted based on the type of pass:For a forward or lateral pass, it counts teammates whose x-position is greater than the passer’s x-position (i.e., beyond the passer moving toward the opponent’s goal).For a backward pass, it counts teammates whose x-position is less than the passer’s x-position (i.e., beyond the passer but moving toward their own goal).</t>
     </r>
   </si>
   <si>
-    <t>What is opponents behind?</t>
-  </si>
-  <si>
     <t>The number of opponents positioned behind the passer’s starting x-location, relative to the play direction and field orientation, at the moment of the pass:
 For a forward or lateral pass, it counts opponents whose  position is less than the passer’s x-position.For a backward pass, it counts opponents whose position is greater than the passer’s x-position</t>
   </si>
   <si>
-    <t>What is opponents beyond?</t>
-  </si>
-  <si>
     <t>The number of opponents positioned ahead of the passer’s starting x-location, relative to the play direction and field orientation, at the moment of the pass:For a forward or lateral pass, it counts opponents whose  position  is greater than the passer’s x-position.For a backward pass, it counts opponents whose position is less than the passer’s x-position</t>
-  </si>
-  <si>
-    <t>What is opponents between?</t>
   </si>
   <si>
     <t>The number of opponents positioned between the passer’s start location and the pass end location at the moment the pass is made:For a forward or backward pass, it counts opponents whose adjusted x-position falls between the passer’s x and end x coordinates.
 For a lateral pass, it counts opponents whose adjusted y-position falls between the passer’s y and end y coordinates.</t>
   </si>
   <si>
-    <t>What is packing ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of opponents positioned close to the path of the pass within 5 meters  and located between the passer and receiver along the pass trajectory at the moment the pass is made. It counts how many opposing players are effectively skipped or bypassed by the ball during the pass, meaning the ball traveled past them closely without them intercepting it.
 </t>
   </si>
   <si>
-    <t>What is pressure on passer?</t>
-  </si>
-  <si>
     <t>A total pressure score on the passer, based on how many opponents are nearby within a 6 meter threshold and how close they are ,closer opponents create more pressure, and those farther away create less.</t>
   </si>
   <si>
-    <t>What is average speed of teammates ?</t>
+    <t xml:space="preserve">The number of opponents near the passer within a threshold of 6 meters. </t>
   </si>
   <si>
     <t xml:space="preserve">How fast the attacking team is moving </t>
   </si>
   <si>
-    <t>What is average speed of opponents?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How fast the defending team is moving </t>
   </si>
   <si>
-    <t>What is opponents nearby?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of opponents near the passer within a threshold of 6 meters. </t>
-  </si>
-  <si>
-    <t>What is teammates nearby?</t>
-  </si>
-  <si>
     <t>The number of teammates near the passer withing a threshold of 6 meters</t>
   </si>
   <si>
-    <t>What is speed difference?</t>
-  </si>
-  <si>
     <t>The difference between the average speed of the passer’s teammates and the average speed of the opponents at the moment of the pass.A positive value means the passer’s team was moving faster than the opponents, while a negative value means the opponents were moving faster.</t>
   </si>
   <si>
-    <t>What is possession xG?</t>
-  </si>
-  <si>
     <t>The probability of a shot leading to a goal within the same possession.</t>
   </si>
   <si>
-    <t>What is possession  xGtarget?</t>
+    <t>The probability of pass that will lead to a shot with xG value more than 0.066100 in the same possession.</t>
   </si>
   <si>
     <t>A binary variable used in order to classify the if the pass is dangerous or safe based on a possession Xg threshold of 0.066100.</t>
   </si>
   <si>
-    <t>What is xT?</t>
-  </si>
-  <si>
-    <t>The probability of pass that will lead to a shot with xG value more than 0.066100 in the same possession.</t>
-  </si>
-  <si>
-    <t>What is passer x and passer y?</t>
-  </si>
-  <si>
     <t>The x and y coordinates of the passer on the pitch at the start of the pass.</t>
   </si>
   <si>
-    <t>How does pressure from defenders influence the xT of a pass?</t>
-  </si>
-  <si>
-    <t>Pressure from defenders lowers the xT  because the player has less time and space to shoot accurately. Shots taken under heavy pressure, such as when defenders are blocking or challenging, are less likely to result in goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How does the angle of a pass affect the chance for it to be a shot?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The angle of a pass affects possibility of shot significantly because pass from a central position closer to goal penalty area facing the goal, have a higher probability of being shot. Wide-angle shots, especially from the sides, are much harder to convert, resulting in a lower xT value.
-</t>
-  </si>
-  <si>
-    <t>What is the impact of pass location on xT, and why are central areas typically assigned higher xT values?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passes from central locations, especially within the penalty area, are assigned higher xT values because they have a greater chance of resulting in a goal. This is due to the fact that players have a better angle to the goal, are often closer, and can avoid the acute angles that make it harder to score. Central areas also offer a better line of sight for shooters, reducing the goalkeeper’s ability to cover all potential pass trajectories.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What factors are considered when calculating xT?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xT considers factors like the end distance from goal, opponents beyond, packing, opponents between, start distance from goal, start angle from goal , end angle from goal and pass angle. Sometimes even teammates beyond, opponents behind, opponents beyond are also important.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why do passes taken from a wide angle usually have a lower xT?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passes taken from a wide angle have a lower xT because the angle to the goal is more acute, making it harder to aim for a shot ,especially if defenders are also in the way. These pass require more precision and skill to convert into goals.
-</t>
+    <t>user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,6 +264,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +272,7 @@
       <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
@@ -317,36 +280,19 @@
       <sz val="9"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -354,72 +300,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -510,9 +421,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -545,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,294 +632,253 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1446827-3C24-4C5A-A62C-3329DB6CF10A}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="206.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="135">
-      <c r="A6" s="1" t="s">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="132.75">
-      <c r="A7" s="1" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="36">
-      <c r="A11" s="1" t="s">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="108">
-      <c r="A14" s="1" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="84">
-      <c r="A15" s="1" t="s">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="96">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="105">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="75">
-      <c r="A29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="105">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="150">
-      <c r="A31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="105">
-      <c r="A32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="90">
-      <c r="A33" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>